--- a/team_specific_matrix/Buffalo_A.xlsx
+++ b/team_specific_matrix/Buffalo_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1941176470588235</v>
+        <v>0.1801801801801802</v>
       </c>
       <c r="C2">
-        <v>0.5764705882352941</v>
+        <v>0.5990990990990991</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02352941176470588</v>
+        <v>0.01801801801801802</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1176470588235294</v>
+        <v>0.1126126126126126</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08823529411764706</v>
+        <v>0.09009009009009009</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.009615384615384616</v>
+        <v>0.007042253521126761</v>
       </c>
       <c r="C3">
-        <v>0.0673076923076923</v>
+        <v>0.06338028169014084</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03846153846153846</v>
+        <v>0.0352112676056338</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7019230769230769</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1826923076923077</v>
+        <v>0.1901408450704225</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1290322580645161</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.03225806451612903</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="P4">
-        <v>0.5806451612903226</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2580645161290323</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06896551724137931</v>
+        <v>0.06145251396648044</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01379310344827586</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05517241379310345</v>
+        <v>0.05586592178770949</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2344827586206897</v>
+        <v>0.2290502793296089</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02068965517241379</v>
+        <v>0.02793296089385475</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1586206896551724</v>
+        <v>0.1620111731843575</v>
       </c>
       <c r="R6">
-        <v>0.02758620689655172</v>
+        <v>0.0335195530726257</v>
       </c>
       <c r="S6">
-        <v>0.4206896551724138</v>
+        <v>0.4189944134078212</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08571428571428572</v>
+        <v>0.09375</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.0125</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05714285714285714</v>
+        <v>0.05625</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1214285714285714</v>
+        <v>0.125</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.007142857142857143</v>
+        <v>0.00625</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1571428571428571</v>
+        <v>0.15625</v>
       </c>
       <c r="R7">
-        <v>0.06428571428571428</v>
+        <v>0.0625</v>
       </c>
       <c r="S7">
-        <v>0.5071428571428571</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07045454545454545</v>
+        <v>0.07170542635658915</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01590909090909091</v>
+        <v>0.01356589147286822</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05454545454545454</v>
+        <v>0.0562015503875969</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1386363636363636</v>
+        <v>0.1375968992248062</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01818181818181818</v>
+        <v>0.02131782945736434</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1409090909090909</v>
+        <v>0.1434108527131783</v>
       </c>
       <c r="R8">
-        <v>0.09090909090909091</v>
+        <v>0.08914728682170543</v>
       </c>
       <c r="S8">
-        <v>0.4704545454545455</v>
+        <v>0.4670542635658915</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1019108280254777</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01273885350318471</v>
+        <v>0.01063829787234043</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.03821656050955414</v>
+        <v>0.04787234042553191</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1082802547770701</v>
+        <v>0.1117021276595745</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.006369426751592357</v>
+        <v>0.005319148936170213</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1719745222929936</v>
+        <v>0.1648936170212766</v>
       </c>
       <c r="R9">
-        <v>0.1019108280254777</v>
+        <v>0.09042553191489362</v>
       </c>
       <c r="S9">
-        <v>0.4585987261146497</v>
+        <v>0.4414893617021277</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.07374301675977654</v>
+        <v>0.08348457350272233</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02346368715083799</v>
+        <v>0.02722323049001815</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06145251396648044</v>
+        <v>0.06442831215970962</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1139664804469274</v>
+        <v>0.1152450090744102</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02122905027932961</v>
+        <v>0.0190562613430127</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2301675977653631</v>
+        <v>0.2295825771324864</v>
       </c>
       <c r="R10">
-        <v>0.07486033519553073</v>
+        <v>0.07259528130671507</v>
       </c>
       <c r="S10">
-        <v>0.4011173184357542</v>
+        <v>0.3883847549909256</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1394230769230769</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07211538461538461</v>
+        <v>0.08627450980392157</v>
       </c>
       <c r="K11">
-        <v>0.2403846153846154</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="L11">
-        <v>0.5240384615384616</v>
+        <v>0.5411764705882353</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02403846153846154</v>
+        <v>0.0196078431372549</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7652173913043478</v>
+        <v>0.7342657342657343</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1565217391304348</v>
+        <v>0.2027972027972028</v>
       </c>
       <c r="K12">
-        <v>0.01739130434782609</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="L12">
-        <v>0.03478260869565217</v>
+        <v>0.02797202797202797</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02608695652173913</v>
+        <v>0.02097902097902098</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8529411764705882</v>
+        <v>0.825</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1176470588235294</v>
+        <v>0.15</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02941176470588235</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.005988023952095809</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2215568862275449</v>
+        <v>0.2244897959183673</v>
       </c>
       <c r="I15">
-        <v>0.08383233532934131</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="J15">
-        <v>0.2754491017964072</v>
+        <v>0.2959183673469388</v>
       </c>
       <c r="K15">
-        <v>0.05988023952095808</v>
+        <v>0.0663265306122449</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.005988023952095809</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0658682634730539</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.281437125748503</v>
+        <v>0.2704081632653061</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01818181818181818</v>
+        <v>0.02054794520547945</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2090909090909091</v>
+        <v>0.2328767123287671</v>
       </c>
       <c r="I16">
-        <v>0.1</v>
+        <v>0.0958904109589041</v>
       </c>
       <c r="J16">
-        <v>0.3454545454545455</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="K16">
-        <v>0.1</v>
+        <v>0.08904109589041095</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02727272727272727</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03636363636363636</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1636363636363636</v>
+        <v>0.1506849315068493</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02380952380952381</v>
+        <v>0.01970443349753695</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2589285714285715</v>
+        <v>0.2536945812807882</v>
       </c>
       <c r="I17">
-        <v>0.06845238095238096</v>
+        <v>0.07389162561576355</v>
       </c>
       <c r="J17">
-        <v>0.3809523809523809</v>
+        <v>0.3940886699507389</v>
       </c>
       <c r="K17">
-        <v>0.08333333333333333</v>
+        <v>0.0812807881773399</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0119047619047619</v>
+        <v>0.01477832512315271</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0625</v>
+        <v>0.05911330049261083</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1101190476190476</v>
+        <v>0.103448275862069</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02941176470588235</v>
+        <v>0.02515723270440252</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2279411764705882</v>
+        <v>0.220125786163522</v>
       </c>
       <c r="I18">
-        <v>0.1029411764705882</v>
+        <v>0.1132075471698113</v>
       </c>
       <c r="J18">
-        <v>0.4338235294117647</v>
+        <v>0.4150943396226415</v>
       </c>
       <c r="K18">
-        <v>0.08823529411764706</v>
+        <v>0.0880503144654088</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.007352941176470588</v>
+        <v>0.02515723270440252</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04411764705882353</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.06617647058823529</v>
+        <v>0.07547169811320754</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01138519924098672</v>
+        <v>0.01045016077170418</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2476280834914611</v>
+        <v>0.2411575562700965</v>
       </c>
       <c r="I19">
-        <v>0.09108159392789374</v>
+        <v>0.09003215434083602</v>
       </c>
       <c r="J19">
-        <v>0.3444022770398482</v>
+        <v>0.3512861736334405</v>
       </c>
       <c r="K19">
-        <v>0.09013282732447818</v>
+        <v>0.09646302250803858</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02371916508538899</v>
+        <v>0.02009646302250804</v>
       </c>
       <c r="N19">
-        <v>0.0009487666034155598</v>
+        <v>0.0008038585209003215</v>
       </c>
       <c r="O19">
-        <v>0.06356736242884251</v>
+        <v>0.06591639871382636</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.127134724857685</v>
+        <v>0.1237942122186495</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Buffalo_A.xlsx
+++ b/team_specific_matrix/Buffalo_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1801801801801802</v>
+        <v>0.1762295081967213</v>
       </c>
       <c r="C2">
-        <v>0.5990990990990991</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01801801801801802</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1126126126126126</v>
+        <v>0.1147540983606557</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09009009009009009</v>
+        <v>0.0860655737704918</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.007042253521126761</v>
+        <v>0.006369426751592357</v>
       </c>
       <c r="C3">
-        <v>0.06338028169014084</v>
+        <v>0.05732484076433121</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0352112676056338</v>
+        <v>0.03184713375796178</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.704225352112676</v>
+        <v>0.7197452229299363</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1901408450704225</v>
+        <v>0.1847133757961783</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09523809523809523</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.02380952380952381</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="P4">
-        <v>0.5238095238095238</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3571428571428572</v>
+        <v>0.3061224489795918</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06145251396648044</v>
+        <v>0.05970149253731343</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0111731843575419</v>
+        <v>0.009950248756218905</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05586592178770949</v>
+        <v>0.05970149253731343</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2290502793296089</v>
+        <v>0.2238805970149254</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02793296089385475</v>
+        <v>0.02985074626865672</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1620111731843575</v>
+        <v>0.1641791044776119</v>
       </c>
       <c r="R6">
-        <v>0.0335195530726257</v>
+        <v>0.03482587064676617</v>
       </c>
       <c r="S6">
-        <v>0.4189944134078212</v>
+        <v>0.417910447761194</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09375</v>
+        <v>0.08021390374331551</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0125</v>
+        <v>0.0160427807486631</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05625</v>
+        <v>0.0481283422459893</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.125</v>
+        <v>0.1283422459893048</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.00625</v>
+        <v>0.0053475935828877</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.15625</v>
+        <v>0.160427807486631</v>
       </c>
       <c r="R7">
-        <v>0.0625</v>
+        <v>0.06417112299465241</v>
       </c>
       <c r="S7">
-        <v>0.4875</v>
+        <v>0.4973262032085561</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07170542635658915</v>
+        <v>0.07130434782608695</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01356589147286822</v>
+        <v>0.01913043478260869</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0562015503875969</v>
+        <v>0.05565217391304348</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1375968992248062</v>
+        <v>0.1321739130434783</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02131782945736434</v>
+        <v>0.02086956521739131</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1434108527131783</v>
+        <v>0.1443478260869565</v>
       </c>
       <c r="R8">
-        <v>0.08914728682170543</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="S8">
-        <v>0.4670542635658915</v>
+        <v>0.4695652173913044</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1276595744680851</v>
+        <v>0.1184834123222749</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01063829787234043</v>
+        <v>0.01421800947867299</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04787234042553191</v>
+        <v>0.04265402843601896</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1117021276595745</v>
+        <v>0.1090047393364929</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.005319148936170213</v>
+        <v>0.004739336492890996</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1648936170212766</v>
+        <v>0.1753554502369668</v>
       </c>
       <c r="R9">
-        <v>0.09042553191489362</v>
+        <v>0.09004739336492891</v>
       </c>
       <c r="S9">
-        <v>0.4414893617021277</v>
+        <v>0.4454976303317535</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08348457350272233</v>
+        <v>0.0857843137254902</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02722323049001815</v>
+        <v>0.02532679738562092</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06442831215970962</v>
+        <v>0.06535947712418301</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1152450090744102</v>
+        <v>0.1127450980392157</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0190562613430127</v>
+        <v>0.01879084967320261</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2295825771324864</v>
+        <v>0.2295751633986928</v>
       </c>
       <c r="R10">
-        <v>0.07259528130671507</v>
+        <v>0.0727124183006536</v>
       </c>
       <c r="S10">
-        <v>0.3883847549909256</v>
+        <v>0.3897058823529412</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1176470588235294</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08627450980392157</v>
+        <v>0.07823129251700681</v>
       </c>
       <c r="K11">
-        <v>0.2352941176470588</v>
+        <v>0.2244897959183673</v>
       </c>
       <c r="L11">
-        <v>0.5411764705882353</v>
+        <v>0.5612244897959183</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0196078431372549</v>
+        <v>0.01700680272108844</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7342657342657343</v>
+        <v>0.7529411764705882</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2027972027972028</v>
+        <v>0.1882352941176471</v>
       </c>
       <c r="K12">
-        <v>0.01398601398601399</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="L12">
-        <v>0.02797202797202797</v>
+        <v>0.02352941176470588</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02097902097902098</v>
+        <v>0.02352941176470588</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.825</v>
+        <v>0.813953488372093</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.15</v>
+        <v>0.1627906976744186</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.025</v>
+        <v>0.02325581395348837</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.00510204081632653</v>
+        <v>0.0091324200913242</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2244897959183673</v>
+        <v>0.228310502283105</v>
       </c>
       <c r="I15">
-        <v>0.07142857142857142</v>
+        <v>0.0730593607305936</v>
       </c>
       <c r="J15">
-        <v>0.2959183673469388</v>
+        <v>0.2968036529680365</v>
       </c>
       <c r="K15">
-        <v>0.0663265306122449</v>
+        <v>0.0639269406392694</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.00510204081632653</v>
+        <v>0.0091324200913242</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06122448979591837</v>
+        <v>0.0593607305936073</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2704081632653061</v>
+        <v>0.2602739726027397</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02054794520547945</v>
+        <v>0.01775147928994083</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2328767123287671</v>
+        <v>0.242603550295858</v>
       </c>
       <c r="I16">
-        <v>0.0958904109589041</v>
+        <v>0.08875739644970414</v>
       </c>
       <c r="J16">
-        <v>0.3561643835616438</v>
+        <v>0.3609467455621302</v>
       </c>
       <c r="K16">
-        <v>0.08904109589041095</v>
+        <v>0.09467455621301775</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0273972602739726</v>
+        <v>0.02366863905325444</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.0273972602739726</v>
+        <v>0.03550295857988166</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1506849315068493</v>
+        <v>0.136094674556213</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01970443349753695</v>
+        <v>0.01746724890829694</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2536945812807882</v>
+        <v>0.2510917030567685</v>
       </c>
       <c r="I17">
-        <v>0.07389162561576355</v>
+        <v>0.07641921397379912</v>
       </c>
       <c r="J17">
-        <v>0.3940886699507389</v>
+        <v>0.388646288209607</v>
       </c>
       <c r="K17">
-        <v>0.0812807881773399</v>
+        <v>0.08951965065502183</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01477832512315271</v>
+        <v>0.01310043668122271</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05911330049261083</v>
+        <v>0.06331877729257641</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.103448275862069</v>
+        <v>0.1004366812227074</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02515723270440252</v>
+        <v>0.02808988764044944</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.220125786163522</v>
+        <v>0.2134831460674157</v>
       </c>
       <c r="I18">
-        <v>0.1132075471698113</v>
+        <v>0.1123595505617977</v>
       </c>
       <c r="J18">
-        <v>0.4150943396226415</v>
+        <v>0.4044943820224719</v>
       </c>
       <c r="K18">
-        <v>0.0880503144654088</v>
+        <v>0.1067415730337079</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02515723270440252</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.03773584905660377</v>
+        <v>0.03370786516853932</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.07547169811320754</v>
+        <v>0.07865168539325842</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01045016077170418</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2411575562700965</v>
+        <v>0.2365591397849462</v>
       </c>
       <c r="I19">
-        <v>0.09003215434083602</v>
+        <v>0.08960573476702509</v>
       </c>
       <c r="J19">
-        <v>0.3512861736334405</v>
+        <v>0.3505376344086021</v>
       </c>
       <c r="K19">
-        <v>0.09646302250803858</v>
+        <v>0.0974910394265233</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02009646302250804</v>
+        <v>0.01935483870967742</v>
       </c>
       <c r="N19">
-        <v>0.0008038585209003215</v>
+        <v>0.0007168458781362007</v>
       </c>
       <c r="O19">
-        <v>0.06591639871382636</v>
+        <v>0.06594982078853047</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1237942122186495</v>
+        <v>0.1290322580645161</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Buffalo_A.xlsx
+++ b/team_specific_matrix/Buffalo_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1762295081967213</v>
+        <v>0.1881918819188192</v>
       </c>
       <c r="C2">
-        <v>0.6065573770491803</v>
+        <v>0.5830258302583026</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01639344262295082</v>
+        <v>0.01476014760147601</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1147540983606557</v>
+        <v>0.1291512915129151</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0860655737704918</v>
+        <v>0.08487084870848709</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006369426751592357</v>
+        <v>0.005988023952095809</v>
       </c>
       <c r="C3">
-        <v>0.05732484076433121</v>
+        <v>0.05389221556886228</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03184713375796178</v>
+        <v>0.03592814371257485</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7197452229299363</v>
+        <v>0.7245508982035929</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1847133757961783</v>
+        <v>0.1796407185628743</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08163265306122448</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.02040816326530612</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="P4">
-        <v>0.5918367346938775</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3061224489795918</v>
+        <v>0.3137254901960784</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05970149253731343</v>
+        <v>0.06542056074766354</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009950248756218905</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05970149253731343</v>
+        <v>0.05607476635514019</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2238805970149254</v>
+        <v>0.2336448598130841</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02985074626865672</v>
+        <v>0.02803738317757009</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1641791044776119</v>
+        <v>0.1635514018691589</v>
       </c>
       <c r="R6">
-        <v>0.03482587064676617</v>
+        <v>0.03271028037383177</v>
       </c>
       <c r="S6">
-        <v>0.417910447761194</v>
+        <v>0.411214953271028</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08021390374331551</v>
+        <v>0.075</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0160427807486631</v>
+        <v>0.015</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0481283422459893</v>
+        <v>0.045</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1283422459893048</v>
+        <v>0.125</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0053475935828877</v>
+        <v>0.005</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.160427807486631</v>
+        <v>0.15</v>
       </c>
       <c r="R7">
-        <v>0.06417112299465241</v>
+        <v>0.06</v>
       </c>
       <c r="S7">
-        <v>0.4973262032085561</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07130434782608695</v>
+        <v>0.07154742096505824</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01913043478260869</v>
+        <v>0.01996672212978369</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.001663893510815308</v>
       </c>
       <c r="F8">
-        <v>0.05565217391304348</v>
+        <v>0.05324459234608985</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1321739130434783</v>
+        <v>0.129783693843594</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02086956521739131</v>
+        <v>0.021630615640599</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1443478260869565</v>
+        <v>0.1447587354409318</v>
       </c>
       <c r="R8">
-        <v>0.08695652173913043</v>
+        <v>0.09151414309484193</v>
       </c>
       <c r="S8">
-        <v>0.4695652173913044</v>
+        <v>0.4658901830282862</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1184834123222749</v>
+        <v>0.1196581196581197</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01421800947867299</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04265402843601896</v>
+        <v>0.04273504273504274</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1090047393364929</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.004739336492890996</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1753554502369668</v>
+        <v>0.1709401709401709</v>
       </c>
       <c r="R9">
-        <v>0.09004739336492891</v>
+        <v>0.08974358974358974</v>
       </c>
       <c r="S9">
-        <v>0.4454976303317535</v>
+        <v>0.4401709401709402</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0857843137254902</v>
+        <v>0.0891089108910891</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02532679738562092</v>
+        <v>0.02437166793602437</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06535947712418301</v>
+        <v>0.06626047220106626</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1127450980392157</v>
+        <v>0.1081492764661082</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01879084967320261</v>
+        <v>0.01904036557501904</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2295751633986928</v>
+        <v>0.2254379284082254</v>
       </c>
       <c r="R10">
-        <v>0.0727124183006536</v>
+        <v>0.0753998476770754</v>
       </c>
       <c r="S10">
-        <v>0.3897058823529412</v>
+        <v>0.3922315308453923</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.119047619047619</v>
+        <v>0.124203821656051</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07823129251700681</v>
+        <v>0.07961783439490445</v>
       </c>
       <c r="K11">
-        <v>0.2244897959183673</v>
+        <v>0.2292993630573248</v>
       </c>
       <c r="L11">
-        <v>0.5612244897959183</v>
+        <v>0.5509554140127388</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01700680272108844</v>
+        <v>0.01592356687898089</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7529411764705882</v>
+        <v>0.7569060773480663</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1882352941176471</v>
+        <v>0.1823204419889503</v>
       </c>
       <c r="K12">
-        <v>0.01176470588235294</v>
+        <v>0.01104972375690608</v>
       </c>
       <c r="L12">
-        <v>0.02352941176470588</v>
+        <v>0.02209944751381215</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02352941176470588</v>
+        <v>0.02762430939226519</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.813953488372093</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1627906976744186</v>
+        <v>0.2127659574468085</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02325581395348837</v>
+        <v>0.02127659574468085</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0091324200913242</v>
+        <v>0.008658008658008658</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.228310502283105</v>
+        <v>0.2207792207792208</v>
       </c>
       <c r="I15">
-        <v>0.0730593607305936</v>
+        <v>0.08225108225108226</v>
       </c>
       <c r="J15">
-        <v>0.2968036529680365</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K15">
-        <v>0.0639269406392694</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0091324200913242</v>
+        <v>0.008658008658008658</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0593607305936073</v>
+        <v>0.05627705627705628</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2602739726027397</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01775147928994083</v>
+        <v>0.02162162162162162</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.242603550295858</v>
+        <v>0.227027027027027</v>
       </c>
       <c r="I16">
-        <v>0.08875739644970414</v>
+        <v>0.1027027027027027</v>
       </c>
       <c r="J16">
-        <v>0.3609467455621302</v>
+        <v>0.345945945945946</v>
       </c>
       <c r="K16">
-        <v>0.09467455621301775</v>
+        <v>0.1027027027027027</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02366863905325444</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03550295857988166</v>
+        <v>0.04324324324324325</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.136094674556213</v>
+        <v>0.1297297297297297</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01746724890829694</v>
+        <v>0.01659751037344398</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2510917030567685</v>
+        <v>0.2448132780082987</v>
       </c>
       <c r="I17">
-        <v>0.07641921397379912</v>
+        <v>0.07883817427385892</v>
       </c>
       <c r="J17">
-        <v>0.388646288209607</v>
+        <v>0.3983402489626556</v>
       </c>
       <c r="K17">
-        <v>0.08951965065502183</v>
+        <v>0.08506224066390042</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01310043668122271</v>
+        <v>0.01244813278008299</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06331877729257641</v>
+        <v>0.06224066390041494</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1004366812227074</v>
+        <v>0.1016597510373444</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02808988764044944</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2134831460674157</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="I18">
-        <v>0.1123595505617977</v>
+        <v>0.1128205128205128</v>
       </c>
       <c r="J18">
-        <v>0.4044943820224719</v>
+        <v>0.4153846153846154</v>
       </c>
       <c r="K18">
-        <v>0.1067415730337079</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02247191011235955</v>
+        <v>0.02051282051282051</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.03370786516853932</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.07865168539325842</v>
+        <v>0.08205128205128205</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01075268817204301</v>
+        <v>0.01071667782987274</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2365591397849462</v>
+        <v>0.2344273275284662</v>
       </c>
       <c r="I19">
-        <v>0.08960573476702509</v>
+        <v>0.09109176155391828</v>
       </c>
       <c r="J19">
-        <v>0.3505376344086021</v>
+        <v>0.3556597454789016</v>
       </c>
       <c r="K19">
-        <v>0.0974910394265233</v>
+        <v>0.0971198928332217</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01935483870967742</v>
+        <v>0.02009377093101139</v>
       </c>
       <c r="N19">
-        <v>0.0007168458781362007</v>
+        <v>0.0006697923643670462</v>
       </c>
       <c r="O19">
-        <v>0.06594982078853047</v>
+        <v>0.06296048225050234</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1290322580645161</v>
+        <v>0.1272605492297388</v>
       </c>
     </row>
   </sheetData>
